--- a/src/outputFileName.xlsx
+++ b/src/outputFileName.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="上行" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="下行" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="上行" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="下行" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46,15 +46,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE7"/>
+  <dimension ref="A1:BE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,32 +645,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-06-11</t>
+          <t>19-06-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-Unlicensed-18060-5027.06111149f.xlsx</t>
+          <t>-Unlicensed-18038-6255.06240754f.xlsx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7033B</t>
+          <t>7036B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18060</t>
+          <t>18038</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>司机号1 5027 司机号2 5257</t>
+          <t>司机号1 6255 司机号2 5257</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10530</t>
+          <t>10584</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>61.367</v>
+        <v>185.213</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>府谷</t>
+          <t>神池南</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>下分区,侧:6</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -806,134 +806,134 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>541</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>16</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>802</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-06-12</t>
+          <t>19-06-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-Unlicensed-18072-5938.06120752f.xlsx</t>
+          <t>-Unlicensed-18122-1887.06260738f.xlsx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -943,12 +943,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18072</t>
+          <t>18122</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>司机号1 5938 司机号2 5257</t>
+          <t>司机号1 1887 司机号2 5257</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -965,11 +965,11 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>185.083</v>
+        <v>185.213</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>侧线：8</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>764</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
@@ -1211,12 +1211,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-06-15</t>
+          <t>19-06-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-Unlicensed-18598-6255.06150745f.xlsx</t>
+          <t>-Unlicensed-18204-6255.06300800f.xlsx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18598</t>
+          <t>18204</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>司机号1 6255 司机号2 6861</t>
+          <t>司机号1 6255 司机号2 6886</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10584</t>
+          <t>10800</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1248,11 +1248,11 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>185.213</v>
+        <v>185.212</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>侧线：10</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>495</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>704</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>462</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
@@ -1494,12 +1494,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-06-13</t>
+          <t>19-06-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-Unlicensed-18680-6255.06131149f.xlsx</t>
+          <t>-Unlicensed-18598-5938.06290748f.xlsx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1509,17 +1509,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18680</t>
+          <t>18598</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>司机号1 6255 司机号2 6861</t>
+          <t>司机号1 5938 司机号2 6082</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10638</t>
+          <t>10800</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1531,11 +1531,11 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>59.987</v>
+        <v>182.514</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>侧线：10</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>府谷</t>
+          <t>神池南</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1655,134 +1655,134 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>476</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>正线进站</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>679</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>16</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>613</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>本次未通过该站</t>
+          <t>无机外停车</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-06-14</t>
+          <t>19-06-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-Unlicensed-18904-5938.06140805f.xlsx</t>
+          <t>-Unlicensed-18940-5027.06250742重1f.xlsx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18904</t>
+          <t>18940</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>司机号1 5938 司机号2 6082</t>
+          <t>司机号1 5027 司机号2 6861</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10638</t>
+          <t>10800</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1814,11 +1814,11 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>185.083</v>
+        <v>185.213</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>侧线：8</t>
+          <t>not found</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>1436</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>949</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2048,300 +2048,17 @@
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>483</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>19-06-16</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-Unlicensed-18994-6255.06160740f.xlsx</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7036B</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18994</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>司机号1 6255 司机号2 6886</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10800</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>128.4</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>182.514</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>神木北</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>神池南</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
         <is>
           <t>无机外停车</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2359,7 +2076,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2369,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE7"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2667,12 +2384,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-06-15</t>
+          <t>19-06-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-Unlicensed-18117-5655.06151313f.xlsx</t>
+          <t>-Unlicensed-18027-5305.06241324f.xlsx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2682,12 +2399,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18117</t>
+          <t>18027</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>司机号1 5655 司机号2 6150</t>
+          <t>司机号1 5305 司机号2 6723</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2697,18 +2414,18 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>128.4</t>
+          <t>120.4</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>185.368</v>
+        <v>185.439</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>侧线：10</t>
+          <t>侧线：15</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2753,7 +2470,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>正线进站</t>
+          <t>下分区,侧:11</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -2788,7 +2505,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>364</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -2863,7 +2580,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>613</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -2908,7 +2625,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>361</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
@@ -2950,12 +2667,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-06-12</t>
+          <t>19-06-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-Unlicensed-18121-5655.06121257f.xlsx</t>
+          <t>-Unlicensed-18255-5655.06251320f.xlsx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2965,7 +2682,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18121</t>
+          <t>18255</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2975,23 +2692,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>126.2</t>
+          <t>128.4</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>187.013</v>
+        <v>185.368</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>侧线：18</t>
+          <t>侧线：10</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -3011,7 +2728,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -3031,7 +2748,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>无机外停车</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -3071,7 +2788,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>442</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -3161,7 +2878,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>592</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -3186,12 +2903,12 @@
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>下分区,侧:1</t>
+          <t>下分区,侧:4</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>449</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
@@ -3233,12 +2950,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-06-16</t>
+          <t>19-06-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-Unlicensed-18347-5655.06161332f.xlsx</t>
+          <t>-Unlicensed-18277-5305.06261320f.xlsx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3248,12 +2965,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18347</t>
+          <t>18277</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>司机号1 5655 司机号2 6723</t>
+          <t>司机号1 5305 司机号2 6723</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3270,11 +2987,11 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>185.298</v>
+        <v>185.447</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>侧线：16</t>
+          <t>侧线：15</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -3324,7 +3041,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>433</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -3344,7 +3061,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>无机外停车</t>
+          <t>433</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -3414,7 +3131,7 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -3444,7 +3161,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>正线通过</t>
+          <t>741</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -3459,7 +3176,7 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>正线通过</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
@@ -3469,12 +3186,12 @@
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>正线进站</t>
+          <t>下分区,侧:5</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>453</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -3508,861 +3225,12 @@
         </is>
       </c>
       <c r="BE4" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>19-06-14</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-Unlicensed-18597-5655.06141305f.xlsx</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>7033A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18597</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>司机号1 5655 司机号2 6150</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2160</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>128.4</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>187.006</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>侧线：18</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>神池南</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>神木北</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>823</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>下分区,侧:4</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>19-06-13</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-Unlicensed-18733-5655.06131455f.xlsx</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>7033A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18733</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>司机号1 5655 司机号2 6150</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2160</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>128.4</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>61.423</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>侧线：3</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>府谷</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>神木北</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>下分区,侧:5</t>
-        </is>
-      </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BD6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>19-06-11</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-Unlicensed-872241-5305.06111444f.xlsx</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7036A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>872241</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>司机号1 5305 司机号2 6150</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>125.1</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>59.73399999999999</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>府谷</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>神木北</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>正线通过</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>正线进站</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>无机外停车</t>
-        </is>
-      </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>本次未通过该站</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
         <is>
           <t>本次未通过该站</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>